--- a/Hunan_carrier/case_data.xlsx
+++ b/Hunan_carrier/case_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="14625" windowHeight="5805"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="用例数据" sheetId="1" r:id="rId1"/>
@@ -186,14 +186,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -201,6 +193,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -208,39 +222,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,6 +245,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -262,21 +275,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,7 +299,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,22 +315,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,13 +330,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,138 +492,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -499,18 +511,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,6 +521,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,24 +562,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,19 +641,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,109 +665,109 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -854,7 +854,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C4ECC9"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
